--- a/results/mp/deberta/corona/confidence/210/stop-words-0.1/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1462">
   <si>
     <t>anchor score</t>
   </si>
@@ -577,709 +577,709 @@
     <t>damn</t>
   </si>
   <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>canadian</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>minister</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>calls</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>donated</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>careful</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>pure</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>fed</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>canadian</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>stocks</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>minister</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>calls</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>based</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>donated</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>careful</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>pure</t>
   </si>
   <si>
     <t>offer</t>
@@ -4768,7 +4768,7 @@
         <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4997,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5097,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5197,7 +5197,7 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K10">
         <v>0.9615384615384616</v>
@@ -5297,7 +5297,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K12">
         <v>0.9491525423728814</v>
@@ -5347,7 +5347,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K13">
         <v>0.9444444444444444</v>
@@ -5497,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K16">
         <v>0.9</v>
@@ -5547,7 +5547,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K17">
         <v>0.9</v>
@@ -5597,7 +5597,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K18">
         <v>0.8947368421052632</v>
@@ -5697,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K20">
         <v>0.875</v>
@@ -5747,7 +5747,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K21">
         <v>0.875</v>
@@ -5797,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K22">
         <v>0.875</v>
@@ -5947,7 +5947,7 @@
         <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K25">
         <v>0.8571428571428571</v>
@@ -5997,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K26">
         <v>0.8571428571428571</v>
@@ -6147,7 +6147,7 @@
         <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K29">
         <v>0.8461538461538461</v>
@@ -6197,7 +6197,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K30">
         <v>0.8461538461538461</v>
@@ -6297,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K32">
         <v>0.8346456692913385</v>
@@ -6347,7 +6347,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K33">
         <v>0.8333333333333334</v>
@@ -6397,7 +6397,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K34">
         <v>0.8333333333333334</v>
@@ -6497,7 +6497,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K36">
         <v>0.8333333333333334</v>
@@ -6547,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K37">
         <v>0.8333333333333334</v>
@@ -6597,7 +6597,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K38">
         <v>0.8333333333333334</v>
@@ -6647,7 +6647,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K39">
         <v>0.8181818181818182</v>
@@ -6697,7 +6697,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K40">
         <v>0.8181818181818182</v>
@@ -6747,7 +6747,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K41">
         <v>0.8181818181818182</v>
@@ -6997,7 +6997,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K46">
         <v>0.7777777777777778</v>
@@ -7097,7 +7097,7 @@
         <v>7</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K48">
         <v>0.759493670886076</v>
@@ -7147,7 +7147,7 @@
         <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K49">
         <v>0.7543859649122807</v>
@@ -7197,7 +7197,7 @@
         <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K50">
         <v>0.75</v>
@@ -7297,7 +7297,7 @@
         <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K52">
         <v>0.75</v>
@@ -7397,7 +7397,7 @@
         <v>14</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K54">
         <v>0.75</v>
@@ -7447,7 +7447,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K55">
         <v>0.746031746031746</v>
@@ -7497,7 +7497,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K56">
         <v>0.7333333333333333</v>
@@ -7547,7 +7547,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K57">
         <v>0.7272727272727273</v>
@@ -7647,7 +7647,7 @@
         <v>3</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K59">
         <v>0.7142857142857143</v>
@@ -7697,7 +7697,7 @@
         <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K60">
         <v>0.7083333333333334</v>
@@ -7747,7 +7747,7 @@
         <v>3</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K61">
         <v>0.7</v>
@@ -7797,7 +7797,7 @@
         <v>6</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K62">
         <v>0.7</v>
@@ -7847,7 +7847,7 @@
         <v>6</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K63">
         <v>0.7</v>
@@ -7897,7 +7897,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K64">
         <v>0.6923076923076923</v>
@@ -7947,7 +7947,7 @@
         <v>7</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K65">
         <v>0.6875</v>
@@ -7997,7 +7997,7 @@
         <v>15</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K66">
         <v>0.6666666666666666</v>
@@ -8047,7 +8047,7 @@
         <v>15</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K67">
         <v>0.6666666666666666</v>
@@ -8097,7 +8097,7 @@
         <v>19</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K68">
         <v>0.6666666666666666</v>
@@ -8197,7 +8197,7 @@
         <v>4</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K70">
         <v>0.6666666666666666</v>
@@ -8247,7 +8247,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K71">
         <v>0.6666666666666666</v>
@@ -8297,7 +8297,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K72">
         <v>0.6666666666666666</v>
@@ -8547,7 +8547,7 @@
         <v>4</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K77">
         <v>0.6666666666666666</v>
@@ -8597,7 +8597,7 @@
         <v>4</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K78">
         <v>0.6666666666666666</v>
@@ -8647,7 +8647,7 @@
         <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K79">
         <v>0.6666666666666666</v>
@@ -8697,7 +8697,7 @@
         <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K80">
         <v>0.6666666666666666</v>
@@ -8797,7 +8797,7 @@
         <v>61</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K82">
         <v>0.6666666666666666</v>
@@ -8847,28 +8847,28 @@
         <v>9</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>194</v>
+        <v>401</v>
       </c>
       <c r="K83">
-        <v>0.6609442060085837</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L83">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="M83">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -8897,28 +8897,28 @@
         <v>9</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>403</v>
+        <v>129</v>
       </c>
       <c r="K84">
-        <v>0.6595744680851063</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L84">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M84">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>129</v>
+        <v>402</v>
       </c>
       <c r="K85">
-        <v>0.6534653465346535</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L85">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="M85">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="N85">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -8997,16 +8997,16 @@
         <v>5</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K86">
-        <v>0.647887323943662</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="L86">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="M86">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -9097,7 +9097,7 @@
         <v>5</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K88">
         <v>0.6363636363636364</v>
@@ -9197,7 +9197,7 @@
         <v>5</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K90">
         <v>0.625</v>
@@ -9247,7 +9247,7 @@
         <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K91">
         <v>0.625</v>
@@ -9297,7 +9297,7 @@
         <v>5</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K92">
         <v>0.6195652173913043</v>
@@ -9347,7 +9347,7 @@
         <v>5</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K93">
         <v>0.6153846153846154</v>
@@ -9447,7 +9447,7 @@
         <v>10</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K95">
         <v>0.6</v>
@@ -9647,7 +9647,7 @@
         <v>5</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K99">
         <v>0.5882352941176471</v>
@@ -9697,7 +9697,7 @@
         <v>26</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K100">
         <v>0.5833333333333334</v>
@@ -9797,7 +9797,7 @@
         <v>16</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K102">
         <v>0.5714285714285714</v>
@@ -9847,7 +9847,7 @@
         <v>22</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K103">
         <v>0.5714285714285714</v>
@@ -9947,7 +9947,7 @@
         <v>22</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K105">
         <v>0.5714285714285714</v>
@@ -9997,7 +9997,7 @@
         <v>17</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K106">
         <v>0.5714285714285714</v>
@@ -10047,7 +10047,7 @@
         <v>18</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K107">
         <v>0.5714285714285714</v>
@@ -10097,7 +10097,7 @@
         <v>6</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K108">
         <v>0.5714285714285714</v>
@@ -10147,7 +10147,7 @@
         <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K109">
         <v>0.5625</v>
@@ -10197,7 +10197,7 @@
         <v>6</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K110">
         <v>0.5555555555555556</v>
@@ -10297,7 +10297,7 @@
         <v>6</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K112">
         <v>0.5555555555555556</v>
@@ -10397,28 +10397,28 @@
         <v>6</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="K114">
-        <v>0.5487804878048781</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L114">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="M114">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="N114">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O114">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>148</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -10447,7 +10447,7 @@
         <v>6</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="K115">
         <v>0.5454545454545454</v>
@@ -10456,13 +10456,13 @@
         <v>12</v>
       </c>
       <c r="M115">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N115">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="O115">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
@@ -10497,28 +10497,28 @@
         <v>6</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="K116">
-        <v>0.5454545454545454</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L116">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M116">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N116">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O116">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -10550,13 +10550,13 @@
         <v>421</v>
       </c>
       <c r="K117">
-        <v>0.5384615384615384</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L117">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="M117">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>6</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -11547,7 +11547,7 @@
         <v>16</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K137">
         <v>0.4761904761904762</v>
@@ -11597,7 +11597,7 @@
         <v>16</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K138">
         <v>0.4673539518900344</v>
@@ -11747,7 +11747,7 @@
         <v>17</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K141">
         <v>0.4558823529411765</v>
@@ -12197,7 +12197,7 @@
         <v>28</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K150">
         <v>0.4431818181818182</v>
@@ -12247,7 +12247,7 @@
         <v>19</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K151">
         <v>0.4304461942257218</v>
@@ -12947,7 +12947,7 @@
         <v>11</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K165">
         <v>0.421875</v>
@@ -13297,7 +13297,7 @@
         <v>12</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K172">
         <v>0.4074074074074074</v>
@@ -13747,7 +13747,7 @@
         <v>12</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K181">
         <v>0.3902439024390244</v>
@@ -13776,25 +13776,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>470</v>
@@ -13832,16 +13832,16 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>13</v>
@@ -13932,16 +13932,16 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
         <v>13</v>
@@ -13982,16 +13982,16 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>13</v>
@@ -14076,25 +14076,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>474</v>
@@ -14126,25 +14126,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.07058823529411765</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C189">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="E189">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F189">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>475</v>
@@ -14182,16 +14182,16 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>14</v>
@@ -14229,22 +14229,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="F191">
-        <v>0.02000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>477</v>
@@ -14282,16 +14282,16 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
         <v>14</v>
@@ -14329,22 +14329,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>479</v>
@@ -14379,22 +14379,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="F194">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>480</v>
@@ -14432,16 +14432,16 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
         <v>14</v>
@@ -14479,22 +14479,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>101</v>
@@ -14532,22 +14532,22 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>14</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K197">
         <v>0.3666666666666666</v>
@@ -14576,13 +14576,13 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -14594,7 +14594,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>482</v>
@@ -14626,7 +14626,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>483</v>
@@ -14676,25 +14676,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>484</v>
@@ -14726,7 +14726,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>485</v>
@@ -14776,25 +14776,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F202">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>486</v>
@@ -14882,13 +14882,13 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E204">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F204">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
@@ -14897,7 +14897,7 @@
         <v>16</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K204">
         <v>0.358974358974359</v>
@@ -14932,16 +14932,16 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
         <v>16</v>
@@ -14976,25 +14976,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>489</v>
@@ -15026,25 +15026,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E207">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F207">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>490</v>
@@ -15132,13 +15132,13 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E209">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F209">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
@@ -15226,25 +15226,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E211">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F211">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>494</v>
@@ -15276,13 +15276,13 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -15294,7 +15294,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>495</v>
@@ -15326,25 +15326,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F213">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>496</v>
@@ -15379,22 +15379,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>497</v>
@@ -15432,16 +15432,16 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>18</v>
@@ -15482,13 +15482,13 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
@@ -15526,13 +15526,13 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -15544,7 +15544,7 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>500</v>
@@ -15576,25 +15576,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E218">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F218">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>501</v>
@@ -15626,7 +15626,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C219">
         <v>2</v>
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>502</v>
@@ -15676,25 +15676,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>503</v>
@@ -15732,16 +15732,16 @@
         <v>2</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
         <v>38</v>
@@ -15782,16 +15782,16 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
         <v>19</v>
@@ -15829,22 +15829,22 @@
         <v>0.05</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="E223">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F223">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>185</v>
@@ -15882,16 +15882,16 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>19</v>
@@ -15932,16 +15932,16 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <v>19</v>
@@ -15976,25 +15976,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>507</v>
@@ -16026,25 +16026,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>82</v>
@@ -16082,13 +16082,13 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E228">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F228">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
@@ -16126,25 +16126,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E229">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F229">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>509</v>
@@ -16176,25 +16176,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E230">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F230">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>83</v>
@@ -16226,25 +16226,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="E231">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="F231">
-        <v>0.01000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>510</v>
@@ -16276,25 +16276,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E232">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F232">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>511</v>
@@ -16326,25 +16326,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E233">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F233">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>512</v>
@@ -16382,13 +16382,13 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E234">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F234">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
@@ -16426,25 +16426,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E235">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F235">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>514</v>
@@ -16476,25 +16476,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.04347826086956522</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E236">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F236">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>515</v>
@@ -16526,25 +16526,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.04166666666666666</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D237">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E237">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>80</v>
@@ -16576,25 +16576,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E238">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F238">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>516</v>
@@ -16626,25 +16626,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.03896103896103896</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>85</v>
@@ -16679,22 +16679,22 @@
         <v>0.03846153846153846</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E240">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F240">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>517</v>
@@ -16732,13 +16732,13 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E241">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F241">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
@@ -16776,25 +16776,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E242">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F242">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>518</v>
@@ -16826,28 +16826,28 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E243">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F243">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K243">
         <v>0.3170731707317073</v>
@@ -16882,13 +16882,13 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E244">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F244">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
@@ -16932,13 +16932,13 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E245">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F245">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
@@ -16982,16 +16982,16 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
         <v>26</v>
@@ -17026,25 +17026,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>521</v>
@@ -17076,25 +17076,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>522</v>
@@ -17126,7 +17126,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>523</v>
@@ -17176,25 +17176,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E250">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F250">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>524</v>
@@ -17226,25 +17226,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>525</v>
@@ -17276,25 +17276,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E252">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F252">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>526</v>
@@ -17326,25 +17326,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.03125</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E253">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F253">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>527</v>
@@ -17376,25 +17376,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>528</v>
@@ -17426,25 +17426,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E255">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F255">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>529</v>
@@ -17476,25 +17476,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>530</v>
@@ -17532,16 +17532,16 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
         <v>35</v>
@@ -17576,25 +17576,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E258">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F258">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>532</v>
@@ -17626,25 +17626,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>533</v>
@@ -17676,25 +17676,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E260">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F260">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>534</v>
@@ -17726,25 +17726,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>535</v>
@@ -17776,25 +17776,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E262">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F262">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>536</v>
@@ -17832,16 +17832,16 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263">
         <v>38</v>
@@ -17876,25 +17876,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.02564102564102564</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="E264">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F264">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>538</v>
@@ -17926,7 +17926,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -17944,7 +17944,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>539</v>
@@ -17976,25 +17976,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.02515723270440252</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="C266">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="E266">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F266">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>540</v>
@@ -18026,25 +18026,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E267">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F267">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>541</v>
@@ -18076,25 +18076,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.02469135802469136</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E268">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F268">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>542</v>
@@ -18126,25 +18126,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E269">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F269">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>543</v>
@@ -18182,16 +18182,16 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E270">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F270">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270">
         <v>41</v>
@@ -18226,25 +18226,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E271">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F271">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>545</v>
@@ -18276,25 +18276,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>546</v>
@@ -18326,28 +18326,28 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E273">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F273">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K273">
         <v>0.2857142857142857</v>
@@ -18376,25 +18376,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E274">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F274">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>547</v>
@@ -18426,25 +18426,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E275">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F275">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>103</v>
@@ -18476,25 +18476,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.02222222222222222</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H276">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>548</v>
@@ -18526,25 +18526,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E277">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F277">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>549</v>
@@ -18576,13 +18576,13 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.02105263157894737</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E278">
         <v>0.75</v>
@@ -18594,7 +18594,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>550</v>
@@ -18626,25 +18626,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E279">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F279">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>551</v>
@@ -18676,25 +18676,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E280">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F280">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>552</v>
@@ -18726,25 +18726,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E281">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="F281">
-        <v>0.15</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>553</v>
@@ -18776,25 +18776,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.02040816326530612</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E282">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F282">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>554</v>
@@ -18826,25 +18826,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.02</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E283">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F283">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>555</v>
@@ -18876,25 +18876,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.0198019801980198</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E284">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F284">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>556</v>
@@ -18926,25 +18926,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E285">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F285">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>557</v>
@@ -18976,25 +18976,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E286">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F286">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>558</v>
@@ -19026,25 +19026,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E287">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F287">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>559</v>
@@ -19076,25 +19076,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E288">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F288">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>560</v>
@@ -19126,25 +19126,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E289">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F289">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>561</v>
@@ -19179,22 +19179,22 @@
         <v>0.01724137931034483</v>
       </c>
       <c r="C290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E290">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F290">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>562</v>
@@ -19226,25 +19226,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E291">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F291">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H291">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>563</v>
@@ -19276,25 +19276,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E292">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F292">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>564</v>
@@ -19326,25 +19326,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F293">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>565</v>
@@ -19376,13 +19376,13 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E294">
         <v>0.86</v>
@@ -19394,7 +19394,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>98</v>
@@ -19426,25 +19426,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E295">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F295">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>566</v>
@@ -19476,25 +19476,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.01587301587301587</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E296">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F296">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>99</v>
@@ -19526,25 +19526,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.01538461538461539</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E297">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F297">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>567</v>
@@ -19576,25 +19576,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.01492537313432836</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E298">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F298">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>568</v>
@@ -19626,25 +19626,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.01449275362318841</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D299">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E299">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F299">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>569</v>
@@ -19676,25 +19676,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.01388888888888889</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E300">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F300">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>570</v>
@@ -19726,25 +19726,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.0136986301369863</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C301">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E301">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F301">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>571</v>
@@ -19776,25 +19776,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.0136986301369863</v>
+        <v>0.0125</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E302">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F302">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H302">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>572</v>
@@ -19826,25 +19826,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.01298701298701299</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E303">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F303">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>573</v>
@@ -19876,13 +19876,13 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.0125</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -19894,7 +19894,7 @@
         <v>0</v>
       </c>
       <c r="H304">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>574</v>
@@ -19926,28 +19926,28 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.01234567901234568</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E305">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F305">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K305">
         <v>0.2803738317757009</v>
@@ -19976,28 +19976,28 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.01204819277108434</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="C306">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="E306">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F306">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H306">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K306">
         <v>0.28</v>
@@ -20026,25 +20026,25 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.01204819277108434</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E307">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F307">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>575</v>
@@ -20076,25 +20076,25 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.0111731843575419</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C308">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D308">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E308">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F308">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>354</v>
+        <v>96</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>576</v>
@@ -20126,25 +20126,25 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.01111111111111111</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E309">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F309">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>577</v>
@@ -20176,25 +20176,25 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.01030927835051546</v>
+        <v>0.01</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E310">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F310">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>578</v>
@@ -20226,28 +20226,28 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.01030927835051546</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E311">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F311">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K311">
         <v>0.2758620689655172</v>
@@ -20276,25 +20276,25 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.01</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E312">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F312">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>579</v>
@@ -20326,25 +20326,25 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.009803921568627451</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D313">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E313">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F313">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>101</v>
+        <v>318</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>580</v>
@@ -20376,25 +20376,25 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>0.009523809523809525</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E314">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F314">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>581</v>
@@ -20426,25 +20426,25 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>0.009345794392523364</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="C315">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D315">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="E315">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F315">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G315" t="b">
         <v>1</v>
       </c>
       <c r="H315">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>141</v>
@@ -20476,25 +20476,25 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>0.009259259259259259</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E316">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F316">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>582</v>
@@ -20526,25 +20526,25 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0.0091324200913242</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D317">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="E317">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F317">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G317" t="b">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>139</v>
@@ -20576,25 +20576,25 @@
         <v>323</v>
       </c>
       <c r="B318">
-        <v>0.008849557522123894</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E318">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F318">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G318" t="b">
         <v>1</v>
       </c>
       <c r="H318">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>583</v>
@@ -20626,25 +20626,25 @@
         <v>324</v>
       </c>
       <c r="B319">
-        <v>0.008849557522123894</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E319">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F319">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G319" t="b">
         <v>1</v>
       </c>
       <c r="H319">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>584</v>
@@ -20676,25 +20676,25 @@
         <v>325</v>
       </c>
       <c r="B320">
-        <v>0.008771929824561403</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D320">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E320">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F320">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H320">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>585</v>
@@ -20726,25 +20726,25 @@
         <v>326</v>
       </c>
       <c r="B321">
-        <v>0.008264462809917356</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E321">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F321">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>586</v>
@@ -20776,25 +20776,25 @@
         <v>327</v>
       </c>
       <c r="B322">
-        <v>0.007936507936507936</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D322">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E322">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F322">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H322">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>587</v>
@@ -20826,25 +20826,25 @@
         <v>328</v>
       </c>
       <c r="B323">
-        <v>0.007874015748031496</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E323">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F323">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>588</v>
@@ -20876,25 +20876,25 @@
         <v>329</v>
       </c>
       <c r="B324">
-        <v>0.007874015748031496</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C324">
         <v>1</v>
       </c>
       <c r="D324">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E324">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F324">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G324" t="b">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>589</v>
@@ -20926,28 +20926,28 @@
         <v>330</v>
       </c>
       <c r="B325">
-        <v>0.007751937984496124</v>
+        <v>0.007368421052631579</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D325">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E325">
-        <v>0.95</v>
+        <v>0.72</v>
       </c>
       <c r="F325">
-        <v>0.05000000000000004</v>
+        <v>0.28</v>
       </c>
       <c r="G325" t="b">
         <v>1</v>
       </c>
       <c r="H325">
-        <v>128</v>
+        <v>943</v>
       </c>
       <c r="J325" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K325">
         <v>0.2638888888888889</v>
@@ -20976,25 +20976,25 @@
         <v>331</v>
       </c>
       <c r="B326">
-        <v>0.007462686567164179</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C326">
         <v>1</v>
       </c>
       <c r="D326">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E326">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F326">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G326" t="b">
         <v>1</v>
       </c>
       <c r="H326">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>590</v>
@@ -21026,28 +21026,28 @@
         <v>332</v>
       </c>
       <c r="B327">
-        <v>0.007368421052631579</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C327">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D327">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E327">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
       <c r="F327">
-        <v>0.28</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G327" t="b">
         <v>1</v>
       </c>
       <c r="H327">
-        <v>943</v>
+        <v>596</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K327">
         <v>0.2608695652173913</v>
@@ -21076,28 +21076,28 @@
         <v>333</v>
       </c>
       <c r="B328">
-        <v>0.007246376811594203</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
       <c r="D328">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E328">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F328">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G328" t="b">
         <v>1</v>
       </c>
       <c r="H328">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K328">
         <v>0.2604166666666667</v>
@@ -21126,25 +21126,25 @@
         <v>334</v>
       </c>
       <c r="B329">
-        <v>0.006666666666666667</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C329">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D329">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E329">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F329">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G329" t="b">
         <v>1</v>
       </c>
       <c r="H329">
-        <v>596</v>
+        <v>169</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>591</v>
@@ -21176,25 +21176,25 @@
         <v>335</v>
       </c>
       <c r="B330">
-        <v>0.006451612903225806</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C330">
         <v>1</v>
       </c>
       <c r="D330">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E330">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F330">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G330" t="b">
         <v>1</v>
       </c>
       <c r="H330">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>592</v>
@@ -21226,25 +21226,25 @@
         <v>336</v>
       </c>
       <c r="B331">
-        <v>0.005882352941176471</v>
+        <v>0.004895960832313341</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D331">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E331">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F331">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G331" t="b">
         <v>1</v>
       </c>
       <c r="H331">
-        <v>169</v>
+        <v>813</v>
       </c>
       <c r="J331" s="1" t="s">
         <v>593</v>
@@ -21276,25 +21276,25 @@
         <v>337</v>
       </c>
       <c r="B332">
-        <v>0.005291005291005291</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="C332">
         <v>1</v>
       </c>
       <c r="D332">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E332">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F332">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G332" t="b">
         <v>1</v>
       </c>
       <c r="H332">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>594</v>
@@ -21326,25 +21326,25 @@
         <v>338</v>
       </c>
       <c r="B333">
-        <v>0.004895960832313341</v>
+        <v>0.004611564384533522</v>
       </c>
       <c r="C333">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D333">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="E333">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F333">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G333" t="b">
         <v>1</v>
       </c>
       <c r="H333">
-        <v>813</v>
+        <v>2806</v>
       </c>
       <c r="J333" s="1" t="s">
         <v>595</v>
@@ -21376,25 +21376,25 @@
         <v>339</v>
       </c>
       <c r="B334">
-        <v>0.004784688995215311</v>
+        <v>0.004085801838610827</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D334">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="E334">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F334">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G334" t="b">
         <v>1</v>
       </c>
       <c r="H334">
-        <v>208</v>
+        <v>1950</v>
       </c>
       <c r="J334" s="1" t="s">
         <v>596</v>
@@ -21426,25 +21426,25 @@
         <v>340</v>
       </c>
       <c r="B335">
-        <v>0.004611564384533522</v>
+        <v>0.003712871287128713</v>
       </c>
       <c r="C335">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D335">
-        <v>301</v>
+        <v>62</v>
       </c>
       <c r="E335">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F335">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G335" t="b">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>2806</v>
+        <v>805</v>
       </c>
       <c r="J335" s="1" t="s">
         <v>597</v>
@@ -21476,25 +21476,25 @@
         <v>341</v>
       </c>
       <c r="B336">
-        <v>0.004085801838610827</v>
+        <v>0.003496503496503497</v>
       </c>
       <c r="C336">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D336">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="E336">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F336">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G336" t="b">
         <v>1</v>
       </c>
       <c r="H336">
-        <v>1950</v>
+        <v>285</v>
       </c>
       <c r="J336" s="1" t="s">
         <v>598</v>
@@ -21526,25 +21526,25 @@
         <v>342</v>
       </c>
       <c r="B337">
-        <v>0.003712871287128713</v>
+        <v>0.003125</v>
       </c>
       <c r="C337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D337">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E337">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F337">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G337" t="b">
         <v>1</v>
       </c>
       <c r="H337">
-        <v>805</v>
+        <v>319</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>599</v>
@@ -21576,25 +21576,25 @@
         <v>343</v>
       </c>
       <c r="B338">
-        <v>0.003496503496503497</v>
+        <v>0.002960526315789474</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D338">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="E338">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F338">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G338" t="b">
         <v>1</v>
       </c>
       <c r="H338">
-        <v>285</v>
+        <v>3031</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>600</v>
@@ -21626,25 +21626,25 @@
         <v>344</v>
       </c>
       <c r="B339">
-        <v>0.003125</v>
+        <v>0.002737226277372263</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D339">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E339">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F339">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G339" t="b">
         <v>1</v>
       </c>
       <c r="H339">
-        <v>319</v>
+        <v>1093</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>601</v>
@@ -21676,25 +21676,25 @@
         <v>345</v>
       </c>
       <c r="B340">
-        <v>0.002960526315789474</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C340">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D340">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="E340">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F340">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H340">
-        <v>3031</v>
+        <v>372</v>
       </c>
       <c r="J340" s="1" t="s">
         <v>602</v>
@@ -21726,25 +21726,25 @@
         <v>346</v>
       </c>
       <c r="B341">
-        <v>0.002737226277372263</v>
+        <v>0.002515723270440251</v>
       </c>
       <c r="C341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D341">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E341">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F341">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G341" t="b">
         <v>1</v>
       </c>
       <c r="H341">
-        <v>1093</v>
+        <v>793</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>603</v>
@@ -21776,25 +21776,25 @@
         <v>347</v>
       </c>
       <c r="B342">
-        <v>0.002680965147453083</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="C342">
         <v>1</v>
       </c>
       <c r="D342">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E342">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F342">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H342">
-        <v>372</v>
+        <v>523</v>
       </c>
       <c r="J342" s="1" t="s">
         <v>604</v>
@@ -21826,25 +21826,25 @@
         <v>348</v>
       </c>
       <c r="B343">
-        <v>0.002515723270440251</v>
+        <v>0.001886792452830189</v>
       </c>
       <c r="C343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D343">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="E343">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F343">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G343" t="b">
         <v>1</v>
       </c>
       <c r="H343">
-        <v>793</v>
+        <v>529</v>
       </c>
       <c r="J343" s="1" t="s">
         <v>605</v>
@@ -21872,30 +21872,6 @@
       </c>
     </row>
     <row r="344" spans="1:17">
-      <c r="A344" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B344">
-        <v>0.001908396946564885</v>
-      </c>
-      <c r="C344">
-        <v>1</v>
-      </c>
-      <c r="D344">
-        <v>22</v>
-      </c>
-      <c r="E344">
-        <v>0.95</v>
-      </c>
-      <c r="F344">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344">
-        <v>523</v>
-      </c>
       <c r="J344" s="1" t="s">
         <v>606</v>
       </c>
@@ -21922,30 +21898,6 @@
       </c>
     </row>
     <row r="345" spans="1:17">
-      <c r="A345" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B345">
-        <v>0.001886792452830189</v>
-      </c>
-      <c r="C345">
-        <v>1</v>
-      </c>
-      <c r="D345">
-        <v>38</v>
-      </c>
-      <c r="E345">
-        <v>0.97</v>
-      </c>
-      <c r="F345">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345">
-        <v>529</v>
-      </c>
       <c r="J345" s="1" t="s">
         <v>607</v>
       </c>
@@ -22415,7 +22367,7 @@
     </row>
     <row r="363" spans="10:17">
       <c r="J363" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K363">
         <v>0.2394366197183098</v>
@@ -22597,7 +22549,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K370">
         <v>0.2337349397590361</v>
@@ -23247,7 +23199,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K395">
         <v>0.2222222222222222</v>
@@ -23507,7 +23459,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K405">
         <v>0.217948717948718</v>
@@ -23533,7 +23485,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K406">
         <v>0.2173913043478261</v>
@@ -23741,7 +23693,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K414">
         <v>0.2105263157894737</v>
@@ -23949,7 +23901,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K422">
         <v>0.2025316455696203</v>
@@ -23975,7 +23927,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K423">
         <v>0.2025316455696203</v>
@@ -24261,7 +24213,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K434">
         <v>0.2</v>
@@ -24573,7 +24525,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K446">
         <v>0.1967213114754098</v>
@@ -24599,7 +24551,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K447">
         <v>0.1964285714285714</v>
@@ -24781,7 +24733,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K454">
         <v>0.1893939393939394</v>
@@ -24885,7 +24837,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K458">
         <v>0.1875</v>
@@ -24963,7 +24915,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K461">
         <v>0.1864406779661017</v>
@@ -25431,7 +25383,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K479">
         <v>0.1785714285714286</v>
@@ -25613,7 +25565,7 @@
     </row>
     <row r="486" spans="10:17">
       <c r="J486" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K486">
         <v>0.1739130434782609</v>
@@ -25743,7 +25695,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K491">
         <v>0.1730769230769231</v>
@@ -25769,7 +25721,7 @@
     </row>
     <row r="492" spans="10:17">
       <c r="J492" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K492">
         <v>0.1684210526315789</v>
@@ -26185,7 +26137,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K508">
         <v>0.1666666666666667</v>
@@ -27797,7 +27749,7 @@
     </row>
     <row r="570" spans="10:17">
       <c r="J570" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K570">
         <v>0.1578947368421053</v>
@@ -27849,7 +27801,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K572">
         <v>0.154320987654321</v>
@@ -27901,7 +27853,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K574">
         <v>0.1538461538461539</v>
@@ -28239,7 +28191,7 @@
     </row>
     <row r="587" spans="10:17">
       <c r="J587" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K587">
         <v>0.1515151515151515</v>
@@ -28343,7 +28295,7 @@
     </row>
     <row r="591" spans="10:17">
       <c r="J591" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K591">
         <v>0.1454545454545454</v>
@@ -29019,7 +28971,7 @@
     </row>
     <row r="617" spans="10:17">
       <c r="J617" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K617">
         <v>0.1428571428571428</v>
@@ -29695,7 +29647,7 @@
     </row>
     <row r="643" spans="10:17">
       <c r="J643" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K643">
         <v>0.1407766990291262</v>
@@ -29773,7 +29725,7 @@
     </row>
     <row r="646" spans="10:17">
       <c r="J646" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K646">
         <v>0.1384615384615385</v>
@@ -29877,7 +29829,7 @@
     </row>
     <row r="650" spans="10:17">
       <c r="J650" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K650">
         <v>0.1363636363636364</v>
@@ -30007,7 +29959,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K655">
         <v>0.1333333333333333</v>
@@ -30033,7 +29985,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K656">
         <v>0.1333333333333333</v>
@@ -30345,7 +30297,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K668">
         <v>0.1276595744680851</v>
@@ -30657,7 +30609,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K680">
         <v>0.125</v>
@@ -30839,7 +30791,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K687">
         <v>0.125</v>
@@ -32139,7 +32091,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K737">
         <v>0.1232876712328767</v>
@@ -32191,7 +32143,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K739">
         <v>0.1224489795918367</v>
@@ -32217,7 +32169,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K740">
         <v>0.1214953271028037</v>
@@ -32295,7 +32247,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K743">
         <v>0.1186440677966102</v>
@@ -32815,7 +32767,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K763">
         <v>0.1129032258064516</v>
@@ -32867,7 +32819,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K765">
         <v>0.1111111111111111</v>
@@ -34141,7 +34093,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K814">
         <v>0.1109865470852018</v>
@@ -34167,7 +34119,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K815">
         <v>0.108359133126935</v>
@@ -34193,7 +34145,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K816">
         <v>0.1081081081081081</v>
@@ -34349,7 +34301,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K822">
         <v>0.1071428571428571</v>
@@ -34453,7 +34405,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K826">
         <v>0.1052631578947368</v>
@@ -34687,7 +34639,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K835">
         <v>0.103448275862069</v>
@@ -34765,7 +34717,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K838">
         <v>0.103448275862069</v>
@@ -34791,7 +34743,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K839">
         <v>0.1031746031746032</v>
@@ -34817,7 +34769,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K840">
         <v>0.102803738317757</v>
@@ -34947,7 +34899,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K845">
         <v>0.1</v>
@@ -35753,7 +35705,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K876">
         <v>0.09677419354838709</v>
@@ -36013,7 +35965,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K886">
         <v>0.09364548494983277</v>
@@ -36039,7 +35991,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K887">
         <v>0.09333333333333334</v>
@@ -36065,7 +36017,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K888">
         <v>0.09308338720103426</v>
@@ -36117,7 +36069,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K890">
         <v>0.09230769230769231</v>
@@ -36169,7 +36121,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K892">
         <v>0.09090909090909091</v>
@@ -36273,7 +36225,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K896">
         <v>0.09090909090909091</v>
@@ -36377,7 +36329,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K900">
         <v>0.09090909090909091</v>
@@ -36741,7 +36693,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K914">
         <v>0.09090909090909091</v>
@@ -36897,7 +36849,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K920">
         <v>0.09090909090909091</v>
@@ -37053,7 +37005,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K926">
         <v>0.09009009009009009</v>
@@ -37235,7 +37187,7 @@
     </row>
     <row r="933" spans="10:17">
       <c r="J933" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K933">
         <v>0.08860759493670886</v>
@@ -37287,7 +37239,7 @@
     </row>
     <row r="935" spans="10:17">
       <c r="J935" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K935">
         <v>0.08823529411764706</v>
@@ -37417,7 +37369,7 @@
     </row>
     <row r="940" spans="10:17">
       <c r="J940" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K940">
         <v>0.08665105386416862</v>
@@ -37651,7 +37603,7 @@
     </row>
     <row r="949" spans="10:17">
       <c r="J949" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K949">
         <v>0.08333333333333333</v>
@@ -38301,7 +38253,7 @@
     </row>
     <row r="974" spans="10:17">
       <c r="J974" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K974">
         <v>0.08333333333333333</v>
@@ -38431,7 +38383,7 @@
     </row>
     <row r="979" spans="10:17">
       <c r="J979" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K979">
         <v>0.08333333333333333</v>
@@ -38483,7 +38435,7 @@
     </row>
     <row r="981" spans="10:17">
       <c r="J981" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K981">
         <v>0.08152173913043478</v>
@@ -38535,7 +38487,7 @@
     </row>
     <row r="983" spans="10:17">
       <c r="J983" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K983">
         <v>0.08064516129032258</v>
@@ -38769,7 +38721,7 @@
     </row>
     <row r="992" spans="10:17">
       <c r="J992" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K992">
         <v>0.07894736842105263</v>
@@ -38821,7 +38773,7 @@
     </row>
     <row r="994" spans="10:17">
       <c r="J994" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K994">
         <v>0.07739938080495357</v>
@@ -39419,7 +39371,7 @@
     </row>
     <row r="1017" spans="10:17">
       <c r="J1017" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K1017">
         <v>0.07317073170731707</v>
@@ -39731,7 +39683,7 @@
     </row>
     <row r="1029" spans="10:17">
       <c r="J1029" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K1029">
         <v>0.07142857142857142</v>
@@ -39939,7 +39891,7 @@
     </row>
     <row r="1037" spans="10:17">
       <c r="J1037" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K1037">
         <v>0.07142857142857142</v>
@@ -40225,7 +40177,7 @@
     </row>
     <row r="1048" spans="10:17">
       <c r="J1048" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K1048">
         <v>0.07042253521126761</v>
@@ -40329,7 +40281,7 @@
     </row>
     <row r="1052" spans="10:17">
       <c r="J1052" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K1052">
         <v>0.06896551724137931</v>
@@ -40485,7 +40437,7 @@
     </row>
     <row r="1058" spans="10:17">
       <c r="J1058" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K1058">
         <v>0.06828703703703703</v>
@@ -40511,7 +40463,7 @@
     </row>
     <row r="1059" spans="10:17">
       <c r="J1059" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K1059">
         <v>0.06818181818181818</v>
@@ -40537,7 +40489,7 @@
     </row>
     <row r="1060" spans="10:17">
       <c r="J1060" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K1060">
         <v>0.06818181818181818</v>
@@ -40953,7 +40905,7 @@
     </row>
     <row r="1076" spans="10:17">
       <c r="J1076" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K1076">
         <v>0.06666666666666667</v>
@@ -41031,7 +40983,7 @@
     </row>
     <row r="1079" spans="10:17">
       <c r="J1079" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K1079">
         <v>0.06666666666666667</v>
@@ -41083,7 +41035,7 @@
     </row>
     <row r="1081" spans="10:17">
       <c r="J1081" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K1081">
         <v>0.06537102473498234</v>
@@ -41109,7 +41061,7 @@
     </row>
     <row r="1082" spans="10:17">
       <c r="J1082" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1082">
         <v>0.06521739130434782</v>
@@ -41317,7 +41269,7 @@
     </row>
     <row r="1090" spans="10:17">
       <c r="J1090" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K1090">
         <v>0.0625</v>
@@ -41785,7 +41737,7 @@
     </row>
     <row r="1108" spans="10:17">
       <c r="J1108" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K1108">
         <v>0.06060606060606061</v>
@@ -41811,7 +41763,7 @@
     </row>
     <row r="1109" spans="10:17">
       <c r="J1109" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K1109">
         <v>0.06060606060606061</v>
@@ -41837,7 +41789,7 @@
     </row>
     <row r="1110" spans="10:17">
       <c r="J1110" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K1110">
         <v>0.06</v>
@@ -42201,7 +42153,7 @@
     </row>
     <row r="1124" spans="10:17">
       <c r="J1124" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K1124">
         <v>0.05882352941176471</v>
@@ -42305,7 +42257,7 @@
     </row>
     <row r="1128" spans="10:17">
       <c r="J1128" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K1128">
         <v>0.05613126079447323</v>
@@ -43111,7 +43063,7 @@
     </row>
     <row r="1159" spans="10:17">
       <c r="J1159" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K1159">
         <v>0.05128205128205128</v>
@@ -43189,7 +43141,7 @@
     </row>
     <row r="1162" spans="10:17">
       <c r="J1162" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K1162">
         <v>0.05043859649122807</v>
@@ -43319,7 +43271,7 @@
     </row>
     <row r="1167" spans="10:17">
       <c r="J1167" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K1167">
         <v>0.05</v>
@@ -43735,7 +43687,7 @@
     </row>
     <row r="1183" spans="10:17">
       <c r="J1183" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K1183">
         <v>0.04682274247491638</v>
@@ -44723,7 +44675,7 @@
     </row>
     <row r="1221" spans="10:17">
       <c r="J1221" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K1221">
         <v>0.03860294117647059</v>
@@ -44801,7 +44753,7 @@
     </row>
     <row r="1224" spans="10:17">
       <c r="J1224" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K1224">
         <v>0.03846153846153846</v>
@@ -45763,7 +45715,7 @@
     </row>
     <row r="1261" spans="10:17">
       <c r="J1261" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K1261">
         <v>0.0291970802919708</v>
@@ -45815,7 +45767,7 @@
     </row>
     <row r="1263" spans="10:17">
       <c r="J1263" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K1263">
         <v>0.02857142857142857</v>
@@ -45867,7 +45819,7 @@
     </row>
     <row r="1265" spans="10:17">
       <c r="J1265" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K1265">
         <v>0.02803738317757009</v>
@@ -46101,7 +46053,7 @@
     </row>
     <row r="1274" spans="10:17">
       <c r="J1274" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K1274">
         <v>0.02564102564102564</v>
@@ -46517,7 +46469,7 @@
     </row>
     <row r="1290" spans="10:17">
       <c r="J1290" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K1290">
         <v>0.02197802197802198</v>
@@ -46621,7 +46573,7 @@
     </row>
     <row r="1294" spans="10:17">
       <c r="J1294" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K1294">
         <v>0.02040816326530612</v>
@@ -46803,7 +46755,7 @@
     </row>
     <row r="1301" spans="10:17">
       <c r="J1301" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K1301">
         <v>0.01873048907388137</v>
@@ -46855,7 +46807,7 @@
     </row>
     <row r="1303" spans="10:17">
       <c r="J1303" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K1303">
         <v>0.01754385964912281</v>
@@ -46881,7 +46833,7 @@
     </row>
     <row r="1304" spans="10:17">
       <c r="J1304" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K1304">
         <v>0.01724137931034483</v>
@@ -47089,7 +47041,7 @@
     </row>
     <row r="1312" spans="10:17">
       <c r="J1312" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K1312">
         <v>0.01538461538461539</v>
